--- a/doc/requirements.xlsx
+++ b/doc/requirements.xlsx
@@ -1,13 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730A2B79-CA30-43DD-B67D-237B06AB95CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15060" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="flask_API" sheetId="1" r:id="rId1"/>
+    <sheet name="VUE_profile" sheetId="2" r:id="rId2"/>
+    <sheet name="VUE_edit_profile" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>/api/users</t>
   </si>
@@ -84,7 +87,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -95,7 +98,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -121,7 +124,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -133,7 +136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -202,22 +205,43 @@
     <t>token</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1.显示个人资料</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2.当访问者是自己的时候编辑按钮状态为允许编辑，否则不允许编辑</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2.submit后修改个人信息，并跳转到个人信息页</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>3.针对他人的个人信息路由，返回认证失败，并返回前一页</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1.跳转到edit_profile后，装载个人信息。 通过路由传参？还是axios从服务区获取？
+   路由传参的话只能通过前一个页面进入，如果用户直接从url进入则获取不到数据</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -226,7 +250,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -234,10 +258,24 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -318,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,9 +391,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,14 +674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:R32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
@@ -650,7 +692,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -670,7 +712,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>24</v>
       </c>
@@ -703,7 +745,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -732,7 +774,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="8"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -761,7 +803,7 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -788,7 +830,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
@@ -815,7 +857,7 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="8"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -834,7 +876,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>26</v>
@@ -861,7 +903,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -880,7 +922,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -899,7 +941,7 @@
       <c r="Q10" s="8"/>
       <c r="R10" s="8"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -918,7 +960,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -937,7 +979,7 @@
       <c r="Q12" s="8"/>
       <c r="R12" s="8"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -956,7 +998,7 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -975,7 +1017,7 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="8"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -994,7 +1036,7 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="8"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -1013,7 +1055,7 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1032,7 +1074,7 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1051,7 +1093,7 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -1070,7 +1112,7 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1089,7 +1131,7 @@
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -1108,7 +1150,7 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -1127,7 +1169,7 @@
       <c r="Q22" s="8"/>
       <c r="R22" s="8"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1140,7 +1182,7 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1153,7 +1195,7 @@
       <c r="Q24" s="8"/>
       <c r="R24" s="8"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1166,7 +1208,7 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1179,7 +1221,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -1192,7 +1234,7 @@
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1205,7 +1247,7 @@
       <c r="Q28" s="8"/>
       <c r="R28" s="8"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
@@ -1218,7 +1260,7 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1231,7 +1273,7 @@
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1244,7 +1286,7 @@
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
@@ -1266,4 +1308,64 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDE2747-11C1-4E8D-968F-60EDC76FC671}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81532F4C-3B36-45D0-8BBB-D184387893D8}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="89.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/requirements.xlsx
+++ b/doc/requirements.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730A2B79-CA30-43DD-B67D-237B06AB95CB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15060" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="flask_API" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>/api/users</t>
   </si>
@@ -87,7 +86,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -98,7 +97,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -124,7 +123,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -136,7 +135,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -226,22 +225,26 @@
    路由传参的话只能通过前一个页面进入，如果用户直接从url进入则获取不到数据</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>4.错误提示</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -250,7 +253,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -258,14 +261,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -376,6 +379,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -391,13 +398,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -674,14 +677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:R32"/>
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
@@ -692,7 +695,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -712,8 +715,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:18" ht="28.5" customHeight="1">
+      <c r="A2" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -731,22 +734,22 @@
       <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="12"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -762,20 +765,20 @@
       <c r="F3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -791,20 +794,20 @@
       <c r="F4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="12"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -818,20 +821,20 @@
         <v>21</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -845,38 +848,38 @@
         <v>23</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4" t="s">
         <v>26</v>
@@ -891,413 +894,413 @@
       <c r="F8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1311,22 +1314,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDE2747-11C1-4E8D-968F-60EDC76FC671}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:1" ht="16.5">
+      <c r="A1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:1" ht="16.5">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1337,31 +1340,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81532F4C-3B36-45D0-8BBB-D184387893D8}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="89.375" customWidth="1"/>
+    <col min="2" max="2" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1" ht="33">
+      <c r="A1" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:1" ht="16.5">
+      <c r="A2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:1" ht="16.5">
+      <c r="A3" s="7" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/doc/requirements.xlsx
+++ b/doc/requirements.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB607F2-612C-4C1A-9EC9-EAFC4FCAA737}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15060" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15060" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flask_API" sheetId="1" r:id="rId1"/>
-    <sheet name="VUE_profile" sheetId="2" r:id="rId2"/>
-    <sheet name="VUE_edit_profile" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="VUE_profile" sheetId="2" r:id="rId3"/>
+    <sheet name="VUE_edit_profile" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>/api/users</t>
   </si>
@@ -70,15 +72,6 @@
   </si>
   <si>
     <t>删除一个用户</t>
-  </si>
-  <si>
-    <t>查询参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page：第几页
-per_page：每页的数据数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -86,7 +79,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -97,7 +90,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -123,7 +116,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -135,7 +128,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="等线"/>
+        <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -229,22 +222,158 @@
     <t>4.错误提示</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>5.修改邮箱地址等其他信息</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>6.username和email混合登录</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>7.短信认证</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>8.第三方登录</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回所有文章集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/posts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一篇新文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/api/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>posts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/&lt;id&gt;</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>page：第几</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">页
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per_page：每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的数据数量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page：第几页
+per_page：每页的数据数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -253,7 +382,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -261,14 +390,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="等线"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -280,6 +409,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -290,7 +427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,9 +512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -398,9 +532,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -413,6 +562,78 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8AD5CD-0748-4A21-B02C-B18D34C3CCD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="476250"/>
+          <a:ext cx="8172450" cy="4772025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,27 +898,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="19.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -708,16 +929,16 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>15</v>
+      <c r="E1" s="16" t="s">
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="28.5" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>24</v>
+    <row r="2" spans="1:18" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -729,27 +950,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="12"/>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -760,25 +981,25 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="12"/>
+        <v>18</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A4" s="11"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -789,25 +1010,25 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -818,23 +1039,23 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="13"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A6" s="12"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -845,467 +1066,436 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="4"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A8" s="14" t="s">
+        <v>39</v>
+      </c>
       <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+    </row>
+    <row r="10" spans="1:18" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="4"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
+      <c r="B11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F12" s="4"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F13" s="4"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
+      <c r="B14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F14" s="4"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="H2:R32"/>
+  <mergeCells count="3">
+    <mergeCell ref="H2:R28"/>
     <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1314,23 +1504,35 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43773FCA-629B-47A9-8D6F-6EB2E734B699}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.5">
-      <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5">
-      <c r="A2" s="7" t="s">
-        <v>31</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1339,42 +1541,75 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A4"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="89.375" customWidth="1"/>
     <col min="2" max="2" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="33">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5">
-      <c r="A2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16.5">
-      <c r="A3" s="7" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="177" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/requirements.xlsx
+++ b/doc/requirements.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB607F2-612C-4C1A-9EC9-EAFC4FCAA737}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3703909B-2AB0-4EDE-82E9-623532342AB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15060" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="555" windowWidth="15945" windowHeight="11685" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flask_API" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>/api/users</t>
   </si>
@@ -74,90 +74,10 @@
     <t>删除一个用户</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to_collection_dict()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-{
- 'items':[item.to_dict() for item in resources.items],
- '_meta':{
-   'page':,
-   'per_page':,
-   'total_pages':,
-   'total_tiems':
- },
- '_links':{
-   'self':当前页的url,
-   'next':下一页的url,
-   'prev':上一页的url
- }
-}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">to_dict()
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>{
- 'id': self.id,
- 'username': ,
- 'name': ,
- 'location': ,
- 'about_me': ,
- 'member_since': , 
- 'last_seen': ,
- '_links': {
-   'self': 返回一个用户的url，参数是用户id,
-   'avatar': 头像链接
- }
-}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>to_collection_dict()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>to_dict()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,48 +119,48 @@
   </si>
   <si>
     <t>1.显示个人资料</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2.当访问者是自己的时候编辑按钮状态为允许编辑，否则不允许编辑</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>2.submit后修改个人信息，并跳转到个人信息页</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>3.针对他人的个人信息路由，返回认证失败，并返回前一页</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1.跳转到edit_profile后，装载个人信息。 通过路由传参？还是axios从服务区获取？
    路由传参的话只能通过前一个页面进入，如果用户直接从url进入则获取不到数据</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>4.错误提示</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ok</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5.修改邮箱地址等其他信息</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>6.username和email混合登录</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>7.短信认证</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>8.第三方登录</t>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>token</t>
@@ -260,10 +180,6 @@
   </si>
   <si>
     <t>/api/posts</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加一篇新文章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,7 +271,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
+    <t>{
+	"username":"username",
+	"email":"email"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+	"title":"标题",
+	"body":"内容",
+	"summary":"大纲",
+	"author_id":"作者id"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>返回</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一篇post</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加一篇新post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>post</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.怎么返回一个用户的所有posts呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据验证：title，body，summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.数据验证，titile、author_id必须
+2.数据过滤，防止xss攻击
+思维漏洞：
+1.title需要验证长度，必须小于225
+2.返回201响应需要有特定head格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +381,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,23 +391,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="134"/>
@@ -416,6 +417,27 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -496,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -513,15 +535,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -532,20 +560,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,6 +602,301 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E86EE084-6A4B-4001-8D6A-DA6E9DB9330E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12528177" y="67236"/>
+          <a:ext cx="6712323" cy="6017558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>to_collection_dict()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> 'items':[item.to_dict() for item in resources.items],</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> '_meta':{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   'page':,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   'per_page':,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   'total_pages':,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   'total_tiems':</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> },</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> '_links':{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   'self':</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>当前页的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>url,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   'next':</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>下一页的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>url,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   'prev':</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>上一页的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>url</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> }</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>to_dict()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> 'id': self.id,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> 'username': ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> 'name': ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> 'location': ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> 'about_me': ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> 'member_since': , </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> 'last_seen': ,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> '_links': {</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   'self': </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>返回一个用户的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>url</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>，参数是用户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>id,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>   'avatar': </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>头像链接</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -899,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -913,12 +1245,13 @@
     <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="7" max="7" width="61.5" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
@@ -929,16 +1262,19 @@
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>47</v>
+      <c r="E1" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>22</v>
+      <c r="G1" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -950,27 +1286,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
+      <c r="G2" s="17"/>
+    </row>
+    <row r="3" spans="1:7" ht="82.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -980,26 +1304,16 @@
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
+      <c r="E3" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="13"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1010,25 +1324,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
+        <v>18</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1039,23 +1343,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1066,440 +1360,186 @@
         <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" s="14" t="s">
-        <v>39</v>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-    </row>
-    <row r="10" spans="1:18" ht="49.5" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="E10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="99" x14ac:dyDescent="0.4">
+      <c r="A11" s="13"/>
+      <c r="B11" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="17" t="s">
+      <c r="D11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="13"/>
+      <c r="B12" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
-      <c r="B12" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4" t="s">
-        <v>14</v>
+      <c r="G13" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="13"/>
+      <c r="B14" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="G15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
+      <c r="G18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="H2:R28"/>
+  <mergeCells count="2">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1511,7 +1551,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1527,16 +1567,16 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1546,7 +1586,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B1" sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1557,58 +1597,58 @@
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="177" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/doc/requirements.xlsx
+++ b/doc/requirements.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3703909B-2AB0-4EDE-82E9-623532342AB9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B9AF2-AE34-4030-A767-0A9B0E63F177}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="555" windowWidth="15945" windowHeight="11685" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15060" tabRatio="718" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flask_API" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
-    <sheet name="VUE_profile" sheetId="2" r:id="rId3"/>
-    <sheet name="VUE_edit_profile" sheetId="4" r:id="rId4"/>
+    <sheet name="VUE_profile" sheetId="2" r:id="rId2"/>
+    <sheet name="VUE_edit_profile" sheetId="4" r:id="rId3"/>
+    <sheet name="VUE_Home" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>/api/users</t>
   </si>
@@ -375,6 +375,10 @@
 1.title需要验证长度，必须小于225
 2.返回201响应需要有特定head格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页实现</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -551,6 +555,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,27 +587,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -887,78 +891,6 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>}</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8AD5CD-0748-4A21-B02C-B18D34C3CCD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1123950" y="476250"/>
-          <a:ext cx="8172450" cy="4772025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1233,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1245,7 +1177,7 @@
     <col min="4" max="4" width="15.25" style="2" customWidth="1"/>
     <col min="5" max="5" width="24" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="61.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="61.5" style="14" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1268,12 +1200,12 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="12" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1291,10 +1223,10 @@
       <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" ht="82.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="13"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1310,10 +1242,10 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="13"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1329,10 +1261,10 @@
       <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="13"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1346,10 +1278,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +1295,7 @@
         <v>19</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="8"/>
@@ -1372,7 +1304,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
@@ -1391,7 +1323,7 @@
       <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="8"/>
@@ -1400,10 +1332,10 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="49.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="22" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -1419,12 +1351,12 @@
         <v>46</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="18" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="99" x14ac:dyDescent="0.4">
-      <c r="A11" s="13"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="9" t="s">
         <v>51</v>
       </c>
@@ -1438,12 +1370,12 @@
         <v>49</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="13"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="4" t="s">
         <v>50</v>
       </c>
@@ -1457,10 +1389,10 @@
         <v>17</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="13"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="4" t="s">
         <v>52</v>
       </c>
@@ -1474,13 +1406,13 @@
         <v>17</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="21" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1493,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="17"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
@@ -1502,7 +1434,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
@@ -1511,7 +1443,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="17"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
@@ -1520,7 +1452,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="17"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
@@ -1529,7 +1461,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="17"/>
+      <c r="G18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1544,20 +1476,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43773FCA-629B-47A9-8D6F-6EB2E734B699}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -1581,12 +1499,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1652,4 +1570,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="177" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AC24DE-D570-4E50-9FAD-CDF41320A268}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="177" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>